--- a/DatosDeMalosOlores.xlsx
+++ b/DatosDeMalosOlores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Invitado-PC\OneDrive\Diseño de software\Segundo parcial\Refactorizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c412cb681320e1d/Diseño de software/Segundo parcial/Refactorizacion/Refactorizacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E4C5235-38F3-4821-B33F-A5065208AA4C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD835C44-70AD-4657-8750-AB0DF39C1DF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -730,95 +730,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
@@ -1149,1423 +1149,1530 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
     </row>
     <row r="47" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
     </row>
     <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
     </row>
     <row r="66" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="11" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
     </row>
     <row r="82" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="36"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
     </row>
     <row r="95" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="11" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="A48:J49"/>
+    <mergeCell ref="A56:J57"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A80:J81"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="A82:J82"/>
     <mergeCell ref="A88:J89"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="A44:B44"/>
@@ -2590,113 +2697,6 @@
     <mergeCell ref="C76:J76"/>
     <mergeCell ref="A64:J65"/>
     <mergeCell ref="A72:J73"/>
-    <mergeCell ref="A80:J81"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:J69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="A74:J74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="A48:J49"/>
-    <mergeCell ref="A56:J57"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="A36:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5:J5" r:id="rId1" display="https://github.com/anedacos/EjemplosRefactorizacion/blob/master/MenuProveedor_LongMethod_Mal.java" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
